--- a/ep/ep/export/flourish/Joint_group_name.xlsx
+++ b/ep/ep/export/flourish/Joint_group_name.xlsx
@@ -79,7 +79,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
